--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:02:08+00:00</t>
+    <t>2024-09-30T11:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour la définition du Bundle de réponse à la recherche d'une décision d'orientation ou d'une évaluation</t>
+    <t>Profil ESMS pour la définition du Bundle de réponse à la recherche d'une décision d'orientation ou d'une évaluation</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -867,7 +867,7 @@
     <t>ESMSConsent</t>
   </si>
   <si>
-    <t>Profil pour la définition de l'accord</t>
+    <t>Profil ESMS pour la définition de l'accord</t>
   </si>
   <si>
     <t>Consent</t>
@@ -1861,7 +1861,7 @@
     <t>ESMSDocumentReference</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier ESMS</t>
+    <t>Profil ESMS pour définir le dossier ESMS</t>
   </si>
   <si>
     <t>DocumentReference</t>
@@ -2650,7 +2650,7 @@
     <t>SDOBundleResultatRechercheNotificationESMS</t>
   </si>
   <si>
-    <t>Profil pour la définition du Bundle de réponse à la recherche d'une notification</t>
+    <t>Profil SDO pour la définition du Bundle de réponse à la recherche d'une notification</t>
   </si>
   <si>
     <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-task}
@@ -2669,7 +2669,7 @@
     <t>SDODocumentReference</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier SDO</t>
+    <t>Profil SDO pour définir le dossier SDO</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
@@ -2700,7 +2700,7 @@
     <t>SDOTask</t>
   </si>
   <si>
-    <t>Profil utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
+    <t>Profil ESMS-SDO utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
   </si>
   <si>
     <t>Task</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T11:49:20+00:00</t>
+    <t>2024-09-30T12:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:00:20+00:00</t>
+    <t>2024-10-01T07:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2650,7 +2650,7 @@
     <t>SDOBundleResultatRechercheNotificationESMS</t>
   </si>
   <si>
-    <t>Profil SDO pour la définition du Bundle de réponse à la recherche d'une notification</t>
+    <t>Profil ESMS-SDO pour la définition du Bundle de réponse à la recherche d'une notification</t>
   </si>
   <si>
     <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-task}

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T07:24:36+00:00</t>
+    <t>2024-10-01T08:28:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil ESMS pour la définition du Bundle de réponse à la recherche d'une décision d'orientation ou d'une évaluation</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter les documents répondant à une recherche de decision ou d’évaluation. Il repose sur le profil ESMSDocumentReference.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -867,7 +867,7 @@
     <t>ESMSConsent</t>
   </si>
   <si>
-    <t>Profil ESMS pour la définition de l'accord</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter la définition de l’accord.</t>
   </si>
   <si>
     <t>Consent</t>
@@ -1861,7 +1861,7 @@
     <t>ESMSDocumentReference</t>
   </si>
   <si>
-    <t>Profil ESMS pour définir le dossier ESMS</t>
+    <t>Profil ESMS héritant du profil SDODocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>DocumentReference</t>
@@ -2650,7 +2650,7 @@
     <t>SDOBundleResultatRechercheNotificationESMS</t>
   </si>
   <si>
-    <t>Profil ESMS-SDO pour la définition du Bundle de réponse à la recherche d'une notification</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour transporter les résultats d’une recherche de notification.</t>
   </si>
   <si>
     <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-task}
@@ -2669,7 +2669,7 @@
     <t>SDODocumentReference</t>
   </si>
   <si>
-    <t>Profil SDO pour définir le dossier SDO</t>
+    <t>Profil SDO utilisé pour véhiculer les données de l’individu, la décision et l’évaluation contenus dans le document CDA</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
@@ -2700,7 +2700,7 @@
     <t>SDOTask</t>
   </si>
   <si>
-    <t>Profil ESMS-SDO utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
   </si>
   <si>
     <t>Task</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T08:28:09+00:00</t>
+    <t>2024-10-01T09:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter les documents répondant à une recherche de decision ou d’évaluation. Il repose sur le profil ESMSDocumentReference.</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter les documents répondant à une recherche de decision ou d’évaluation.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:52:34+00:00</t>
+    <t>2024-10-02T07:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T07:48:37+00:00</t>
+    <t>2024-10-02T12:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T12:24:50+00:00</t>
+    <t>2024-10-02T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T12:36:42+00:00</t>
+    <t>2024-10-02T13:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T13:23:06+00:00</t>
+    <t>2024-10-03T08:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
